--- a/BUCK.xlsx
+++ b/BUCK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DTT2021\C#.Example\Hung\Source code season 5\ServerDTT(New)\ServerDTT(New)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DTT2021\[DTT2021][Source-code]\ServerDTT(New)\ServerDTT(New)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C590EBC-2E3D-416B-ADCD-079A417F7303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA7690F-FAA7-4ADF-944D-BFB376044E0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2B7489BF-D45E-4814-A8B1-D5F26604EBC5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{2B7489BF-D45E-4814-A8B1-D5F26604EBC5}"/>
   </bookViews>
   <sheets>
     <sheet name="KD" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="TT" sheetId="3" r:id="rId3"/>
     <sheet name="VD" sheetId="4" r:id="rId4"/>
     <sheet name="GM" sheetId="5" r:id="rId5"/>
+    <sheet name="CHP" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="256">
   <si>
     <t>STT</t>
   </si>
@@ -778,6 +779,36 @@
   </si>
   <si>
     <t>S5_CK_bia.png</t>
+  </si>
+  <si>
+    <t>Trong số : mặt phẳng nghiêng, đòn bẩy, ròng rọc, máy cơ đơn giản nào cho ta lợi về công?</t>
+  </si>
+  <si>
+    <t>Không có máy cơ nào</t>
+  </si>
+  <si>
+    <t>Quốc kỳ Việt Nam có bao nhiêu tâm đối xứng?</t>
+  </si>
+  <si>
+    <t>0/ Không có tâm đối xứng</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ gốc được sử dụng trong truyện cổ Grim là gì?</t>
+  </si>
+  <si>
+    <t>Tiếng Đức</t>
+  </si>
+  <si>
+    <t>Để tăng chất lượng xăng dầu trong chế hóa dầu mỏ, người ta dùng phương pháp nào ?</t>
+  </si>
+  <si>
+    <t>Reforming</t>
+  </si>
+  <si>
+    <t>Di tích thành Cổ Loa (tòa thành có niên đại cổ nhất ở Việt Nam) hiện đang nằm ở tỉnh thành nào?</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1203,6 +1234,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1521,7 +1555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867E85D2-DE61-4B08-8D36-0BDAFD80D0AD}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
@@ -2364,7 +2398,7 @@
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4346,4 +4380,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710F7584-4465-456F-80E2-577D1ED25AD4}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="45.77734375" style="70" customWidth="1"/>
+    <col min="3" max="3" width="44.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>